--- a/biology/Médecine/Programmed_cell_death_1/Programmed_cell_death_1.xlsx
+++ b/biology/Médecine/Programmed_cell_death_1/Programmed_cell_death_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La protéine 1 de la mort cellulaire programmée (en anglais : Programmed cell death protein 1) aussi désignée PD-1 ou CD279 (en anglais : cluster of differentiation 279)[5],[6] est une protéine de surface cellulaire exprimée notamment à la surface des lymphocytes T activés. Elle est encodée par le gène PDCD1 situé sur le chromosome 2 humain (locus 2q37.3)[5].
-Elle joue un rôle dans la régulation de la réponse du système immunitaire vis-à-vis des cellules du corps humain en abaissant la réaction immunitaire et en favorisant l'autotolérance en supprimant l'activité inflammatoire des lymphocytes T. Cela permet de prévenir les maladies auto-immunes, mais peut en contrepartie empêcher le système immunitaire de tuer des cellules cancéreuses[7].
+La protéine 1 de la mort cellulaire programmée (en anglais : Programmed cell death protein 1) aussi désignée PD-1 ou CD279 (en anglais : cluster of differentiation 279), est une protéine de surface cellulaire exprimée notamment à la surface des lymphocytes T activés. Elle est encodée par le gène PDCD1 situé sur le chromosome 2 humain (locus 2q37.3).
+Elle joue un rôle dans la régulation de la réponse du système immunitaire vis-à-vis des cellules du corps humain en abaissant la réaction immunitaire et en favorisant l'autotolérance en supprimant l'activité inflammatoire des lymphocytes T. Cela permet de prévenir les maladies auto-immunes, mais peut en contrepartie empêcher le système immunitaire de tuer des cellules cancéreuses.
 En effet, les ligands de la protéine PD1 désignés PD-L1 (en anglais : Programmed death-ligand 1) et PD-L2 (en) (en anglais : Programmed cell death 1 ligand 2) sont exprimés par les cellules tumorales.
-La liaison du récepteur (exprimé par les lymphocytes) et de son ligand (exprimé par les cellules tumorales) bloque le système immunitaire du patient qui ne « reconnaît pas la tumeur »[8].
+La liaison du récepteur (exprimé par les lymphocytes) et de son ligand (exprimé par les cellules tumorales) bloque le système immunitaire du patient qui ne « reconnaît pas la tumeur ».
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1992, lors d'un dépistage des gènes impliqués dans l'apoptose, Yasumasa Ishida, Tasuku Honjo et leurs collègues de l'université de Kyoto ont découvert et nommé la protéine PD-1[9],[10]. En 1999, le même groupe a démontré que les souris chez lesquelles le gène PD-1 était désactivé étaient sujettes aux maladies auto-immunes et a donc conclu que PD-1 était un régulateur négatif des réponses immunitaires[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1992, lors d'un dépistage des gènes impliqués dans l'apoptose, Yasumasa Ishida, Tasuku Honjo et leurs collègues de l'université de Kyoto ont découvert et nommé la protéine PD-1,. En 1999, le même groupe a démontré que les souris chez lesquelles le gène PD-1 était désactivé étaient sujettes aux maladies auto-immunes et a donc conclu que PD-1 était un régulateur négatif des réponses immunitaires.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un certain nombre d'anticorps monoclonaux tels que le nivolumab, le pembrolizumab, le dostarlimab ou le toripalimab, disposent d'une autorisation de mise sur le marché « pour stimuler le système immunitaire du patient afin de lutter contre sa tumeur[11] » en se fixant et bloquant le récepteur PD-1. Le sintilimab a une meilleure affinité sur le PD que le nivolumab ou le pembrolizumab[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre d'anticorps monoclonaux tels que le nivolumab, le pembrolizumab, le dostarlimab ou le toripalimab, disposent d'une autorisation de mise sur le marché « pour stimuler le système immunitaire du patient afin de lutter contre sa tumeur » en se fixant et bloquant le récepteur PD-1. Le sintilimab a une meilleure affinité sur le PD que le nivolumab ou le pembrolizumab.
 </t>
         </is>
       </c>
